--- a/Data sample.xlsx
+++ b/Data sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Data Sample</t>
   </si>
@@ -66,13 +66,58 @@
   </si>
   <si>
     <t>Selamat hari selasa*****////////*****Tetap semangat jangan berputus asa, ingat nanti sore setengah dua ada timnas u23 lawan  Saudi Arabia,lanjut menjelang isya Timnas senior lawan Vietnam pada Kualifikasi Piala Dunia. 😊🇮🇩🇸🇦/🇮🇩🇻🇳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naïve Bayes </t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Kalo timnas menang timeline penuh ama tweetnya @PSSI Kalo kalah gak keliatan batang idungnya…</t>
+  </si>
+  <si>
+    <t>Kalo debut bikin blunder udah siap dibully blm mas? Kiper Timnas kayaknya bukan skill yg dikedepankan saat ini, tapi mental</t>
+  </si>
+  <si>
+    <t>iya ya....pssi yang selalu diistimewakan malah gaada prestasi nya......okelah klo yg u16-u22 masih ada sih prestasi…</t>
+  </si>
+  <si>
+    <t>Timnas U16=Banteng😈 Timnas U19=Singa😠 Timnas U23=Badak😡 Timnas Senior=Tai Sapi💩</t>
+  </si>
+  <si>
+    <t>Timnas sepak bola kita u16, u19, u22, bagus cara mainnya, tim senior aja yg jelek mainnya, itu yg harus dicarikan solusinya</t>
+  </si>
+  <si>
+    <t>Tingkatkan Level Timnas Indonesia🇮🇩 TIMNAS U16 : MYTHIC TIMNAS U19 : LEGEND TIMNAS SENIOR : NOOB, AMATIR, COMPONK,…</t>
+  </si>
+  <si>
+    <t>Pas nyanyi lagu kebangsaan, pemain Timnas U16 sampai u23 nangis. Kalau yang senior, rakyatnya yang nangis. Nangis kecewa Wqw…</t>
+  </si>
+  <si>
+    <t>Ini bakalan jadi kekalahan yg ke empat. Coba lihat aja. Nggak suka sama Timnas Senior yg kali ini, nggak tahu kenapa. Beda bgt sama U19, U22, U16</t>
+  </si>
+  <si>
+    <t>Timnas Senior, Persija, Emyu, Milan. Bapuk kabeh mbah!</t>
+  </si>
+  <si>
+    <t>WOW! Penyebab permainan Timnas Senior kita se-lawak itu karena pelatihnya memang hobi ngelawak. Bener kata Parto</t>
+  </si>
+  <si>
+    <t>Menghitung Probabilitas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +138,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +165,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,11 +187,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -130,8 +203,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -411,178 +488,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="196.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="196.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f>6/8+6+6</f>
+        <v>12.75</v>
+      </c>
+      <c r="G23">
+        <f>F23/20</f>
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <f>6/8+6+6</f>
+        <v>12.75</v>
+      </c>
+      <c r="G24">
+        <f>F24/20</f>
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="E25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f>8/8+6+6</f>
+        <v>13</v>
+      </c>
+      <c r="G25" s="6">
+        <f>F25/20</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
